--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 6 2 variables 18.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 6 2 variables 18.xlsx_with_dialog_acts.xlsx
@@ -687,12 +687,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1083,12 +1083,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1227,12 +1227,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1947,12 +1947,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2271,12 +2271,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2636,12 +2636,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2816,12 +2816,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
